--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1588753.133810818</v>
+        <v>1619716.925916212</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>278692.0725916873</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6395267.647774315</v>
+        <v>6491886.207445191</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>43.51836022557372</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>215.9787279886748</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.05618073340957</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>159.582856075998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>335.0452643929978</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>417.0085866722876</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1066,10 +1066,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>66.09580736876525</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>40.65439176827646</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1142,13 +1142,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>402.7869235239925</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>31.81938927369591</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362454</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>142.0902352657462</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773013</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791314398</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>147.352527530992</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>2.292363805516792</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,10 +1582,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>193.8659438253731</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>411.0681431807218</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573341</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208262</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>72.13424985735507</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884121</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>218.9887234481642</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2011,16 +2011,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>60.78001549303776</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>122.9742767430581</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>24.62703520776627</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3427,19 +3427,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>130.3463188443589</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>56.72042565247655</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3478,10 +3478,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394332</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3503,7 +3503,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3566,7 +3566,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.951038786484</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>47.90525155920217</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,7 +3670,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>210.1409105078473</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3794,7 +3794,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>167.0140765363379</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3806,7 +3806,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633455</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>28.46824604904389</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,10 +3952,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>172.6623007436915</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800608</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4031,13 +4031,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>389.4258469646086</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>162.0469045419234</v>
+        <v>148.6041873872574</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4144,7 +4144,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1633.062660869835</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1204.480986607104</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>775.899312344372</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,22 +4331,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="O2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>813.0384456815061</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>393.8959822608168</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>780.7349337829626</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>608.1732222661875</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>442.2952294677102</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,19 +4489,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1535.988625963248</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1257.555625216353</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V4" t="n">
-        <v>970.6001170867833</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="W4" t="n">
-        <v>698.5737126730747</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="X4" t="n">
-        <v>453.1819580064872</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.7622873205955</v>
+        <v>972.5535525019498</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>963.357020376215</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.331874054196</v>
+        <v>525.2145475596383</v>
       </c>
       <c r="D5" t="n">
-        <v>887.7501997914644</v>
+        <v>103.9937529411659</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>74.25941213986513</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>102.8181913809209</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>726.9189754256978</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>726.9189754256978</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>726.9189754256978</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>726.9189754256978</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1351.019759470475</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1975.120543515251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473846</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473846</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657683</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530722</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530722</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530722</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1813.044773941755</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1393.902310521065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1389.656590861123</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639652</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909189</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070805</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326444</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993452</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161468</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760924</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>823.9970979175605</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>651.4353864007854</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>485.5573936023081</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>315.7993898530453</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>139.0923358148016</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>139.0923358148016</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148016</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541668</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253024</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>829.9804080932635</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473846</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179218</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477214</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.08069305567</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308775</v>
       </c>
       <c r="V7" t="n">
-        <v>1630.419988293786</v>
+        <v>1529.692184179205</v>
       </c>
       <c r="W7" t="n">
-        <v>1358.393583880077</v>
+        <v>1488.627141989027</v>
       </c>
       <c r="X7" t="n">
-        <v>1113.00182921349</v>
+        <v>1243.235387322439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.00182921349</v>
+        <v>1015.815716636548</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>866.1045910388293</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>832.0025222626566</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>800.1331414775052</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1354.309253581271</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>991.6923035150976</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>586.8368489261309</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>179.9813706190676</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1292.404161523737</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1532.240118618369</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1532.240118618369</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1532.240118618369</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111518</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111518</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>1171.795942933974</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503958</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776222</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777444</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284816</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902378</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160654</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>185.39592590644</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2112.450585778171</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.450585778171</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112634</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.462783046461</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3765.607328457494</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3346.464865036805</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2938.178741336458</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583915</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2467.51614016237</v>
+        <v>2292.381813755398</v>
       </c>
       <c r="U16" t="n">
-        <v>2399.406093907741</v>
+        <v>2013.948813008503</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>1726.993304878933</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181365</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364789</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539233</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697528</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>609.3310231067362</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423114</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137114</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742891</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2574.17909370626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2574.17909370626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.358760276566</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4382.668635109962</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.167421068557</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068557</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252394</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125432</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442449</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376276</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787309</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366619</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666273</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493062</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051587</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137114</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818288</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480411</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.077185838984</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>635.515474322209</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>469.6374815237317</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>299.879477774469</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>238.4855227309966</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>238.4855227309966</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137114</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137114</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.163033586061</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200623</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324159</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243863</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579711</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176683</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731399</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856333</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5978,52 +5978,52 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707798</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.023562068825</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321684</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532235</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968682</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538989</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538989</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538989</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538989</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722826</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595864</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912881</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846707</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620726</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987149</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452681</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722218</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883834</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545673</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312374</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974497</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6090,16 +6090,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
         <v>1196.412455590541</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.222265562615</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418358</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405614</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420841</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928214</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545777</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804053</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354696</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066052</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2769.623329187108</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3895.354312623555</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4875.533979193861</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4875.533979193861</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6537,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883913</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716163</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
         <v>614.3171730324584</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407378</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,40 +6710,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831957</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,43 +6944,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2758.053686176684</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.710185817961</v>
+        <v>811.7546776883839</v>
       </c>
       <c r="C37" t="n">
-        <v>926.148474301186</v>
+        <v>639.1929661716089</v>
       </c>
       <c r="D37" t="n">
-        <v>760.2704815027087</v>
+        <v>639.1929661716089</v>
       </c>
       <c r="E37" t="n">
-        <v>590.5124777534459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F37" t="n">
-        <v>413.8054237152021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
-        <v>248.2141487410297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7126,19 +7126,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303128</v>
       </c>
       <c r="V37" t="n">
-        <v>2035.366634303136</v>
+        <v>1748.411126173559</v>
       </c>
       <c r="W37" t="n">
-        <v>1763.340229889428</v>
+        <v>1476.38472175985</v>
       </c>
       <c r="X37" t="n">
-        <v>1517.94847522284</v>
+        <v>1230.992967093263</v>
       </c>
       <c r="Y37" t="n">
-        <v>1290.528804536948</v>
+        <v>1003.573296407371</v>
       </c>
     </row>
     <row r="38">
@@ -7160,58 +7160,58 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7254,22 +7254,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.611946844417</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276421</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291648</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
         <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961042</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2506.656904206056</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2228.223903459162</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1941.268395329592</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1669.241990915884</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1423.850236249296</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y40" t="n">
-        <v>1196.430565563404</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369035</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601674</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2496.531034410829</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410829</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981135</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814531</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773127</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526183</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.02155271002</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583059</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172616</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106443</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517476</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096787</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.35224639644</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218164</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584587</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223588</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015795</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142405</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271528</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E43" t="n">
-        <v>671.27392107789</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396461</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>131.016644360723</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558483</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952135</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2290.534442015147</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>2116.12807762758</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.101673213872</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547284</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861392</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693462</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4533.079733112634</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4170.462783046461</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1128.091494878162</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.091494878162</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.091494878162</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.091494878162</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.091494878162</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1128.091494878162</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1078.256218512436</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C46" t="n">
-        <v>914.5724765508968</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D46" t="n">
-        <v>748.6944837524195</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E46" t="n">
-        <v>578.9364800031568</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F46" t="n">
-        <v>402.229425964913</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>236.6381509907407</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713472</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583902</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1742.886262583902</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1497.494507917315</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1270.074837231423</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7997,7 +7997,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>52.91495433479192</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742117</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388474919</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,10 +8617,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>15.28233895957987</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>706.631711544173</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2533329504377</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,7 +9419,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465103</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.04441372935617</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365287932</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>267.5985112554904</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>81.78272691405257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.9684315993369</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473431</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>197.1718905122163</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>178.3951296148045</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>114.1599680048236</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>37.71410486741121</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>81.78272691405267</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>122.9308428424051</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>33.279741449482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>89.61600311981535</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>111.4236523045823</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25919,13 +25919,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>11.38105307846844</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325318045</v>
       </c>
       <c r="C46" t="n">
-        <v>8.789189859683944</v>
+        <v>22.23190701434996</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>532729.1504707348</v>
+        <v>545411.47289401</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>532729.1504707348</v>
+        <v>547694.9529399357</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544977.817740678</v>
+        <v>567976.5044053111</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>544977.817740678</v>
+        <v>567976.504405311</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>552667.9847679196</v>
+        <v>567976.5044053111</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>567976.5044053112</v>
+        <v>567976.5044053111</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>567976.5044053111</v>
+        <v>567976.5044053108</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>567976.504405311</v>
+        <v>567976.5044053111</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>560286.3373780698</v>
+        <v>567976.5044053111</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544977.817740678</v>
+        <v>567976.504405311</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26317,16 @@
         <v>442321.538909587</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095868</v>
+        <v>442321.538909587</v>
       </c>
       <c r="E2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="G2" t="n">
-        <v>422942.2987515114</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
         <v>434657.5069133156</v>
@@ -26335,7 +26335,7 @@
         <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="K2" t="n">
         <v>434657.5069133157</v>
@@ -26344,16 +26344,16 @@
         <v>434657.5069133157</v>
       </c>
       <c r="M2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133155</v>
       </c>
       <c r="N2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="O2" t="n">
-        <v>428772.4239884373</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="P2" t="n">
-        <v>417057.215826633</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501551</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998341</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850636</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996315</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.441709163278574e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449897</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877199</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622833</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924765</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>78141.89423804611</v>
+        <v>81439.57146904278</v>
       </c>
       <c r="F4" t="n">
-        <v>78141.89423804611</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="G4" t="n">
-        <v>79244.55236275084</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="H4" t="n">
+        <v>81439.5714690428</v>
+      </c>
+      <c r="I4" t="n">
         <v>81439.57146904283</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81439.57146904293</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
@@ -26445,19 +26445,19 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904274</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="O4" t="n">
-        <v>80336.9133443381</v>
+        <v>81439.57146904274</v>
       </c>
       <c r="P4" t="n">
-        <v>78141.89423804611</v>
+        <v>81439.57146904274</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800245</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024206</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579262</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319797</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34744.47727078793</v>
+        <v>34744.47727078788</v>
       </c>
       <c r="C6" t="n">
-        <v>176935.7779304978</v>
+        <v>132304.7914140924</v>
       </c>
       <c r="D6" t="n">
-        <v>176935.7779304978</v>
+        <v>191318.3305382875</v>
       </c>
       <c r="E6" t="n">
-        <v>31040.95728890193</v>
+        <v>93121.36327804778</v>
       </c>
       <c r="F6" t="n">
-        <v>265395.9793109393</v>
+        <v>275476.4724990976</v>
       </c>
       <c r="G6" t="n">
-        <v>262445.1905456678</v>
+        <v>275476.4724990976</v>
       </c>
       <c r="H6" t="n">
-        <v>263096.9418585171</v>
+        <v>275476.4724990976</v>
       </c>
       <c r="I6" t="n">
-        <v>275499.6968384796</v>
+        <v>275476.4724990976</v>
       </c>
       <c r="J6" t="n">
-        <v>164485.2314934906</v>
+        <v>164462.0071541076</v>
       </c>
       <c r="K6" t="n">
-        <v>275499.6968384803</v>
+        <v>222430.6178603257</v>
       </c>
       <c r="L6" t="n">
-        <v>275499.6968384803</v>
+        <v>266084.1707724748</v>
       </c>
       <c r="M6" t="n">
-        <v>79898.5175554126</v>
+        <v>123276.3015611099</v>
       </c>
       <c r="N6" t="n">
-        <v>275499.6968384802</v>
+        <v>275476.4724990976</v>
       </c>
       <c r="O6" t="n">
-        <v>272121.2745609013</v>
+        <v>275476.4724990977</v>
       </c>
       <c r="P6" t="n">
-        <v>265395.9793109394</v>
+        <v>275476.4724990976</v>
       </c>
     </row>
   </sheetData>
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384747</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483572</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939544</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319932</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760598</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201023</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483572</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939544</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483572</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939544</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319932</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760598</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>378.518214554485</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>188.2245344746683</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>154.0042429783605</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>83.83779588133126</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.5421003050123</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>98.71578369541311</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>217.9901456795086</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>228.6517486012949</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27862,13 +27862,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>12.16411526248987</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>372.3838731896472</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.5584354736795</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.402932942232053e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-4.223655907778799e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-4.223655907778799e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-4.223655907778799e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-4.79314551267764e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-8.30096770065201e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.146602125827387e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-7.517303009959066e-12</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-5.627555147612522e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-2.164466626054293e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-6.350904614923257e-12</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -34699,10 +34699,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>52.91495433479192</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742117</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388474919</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>15.28233895957987</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>706.631711544173</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2533329504377</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36139,7 +36139,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465103</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-5.34688178647151e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512943</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.04441372935617</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36853,7 +36853,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365287932</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37856,10 +37856,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>687.6096162327044</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38178,10 +38178,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
